--- a/loggbok.xlsx
+++ b/loggbok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/97marcar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/97marcar/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Vecka</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>Bytt projekt uppgift. Ska göra ett chattprogram. Följt en tutorial, gjort en testchat efter den.</t>
+  </si>
+  <si>
+    <t>Jobbat med socket tutorials</t>
+  </si>
+  <si>
+    <t>samma</t>
+  </si>
+  <si>
+    <t>Jobbat klart med socket tutorials och börjat med själva servern</t>
+  </si>
+  <si>
+    <t>Försöka få två terminalfönster att kommunicera</t>
+  </si>
+  <si>
+    <t>Jobbat med servern</t>
+  </si>
+  <si>
+    <t>försöka få två terminalfönster att kommunicera</t>
+  </si>
+  <si>
+    <t>bara en client åt gången funkar</t>
   </si>
 </sst>
 </file>
@@ -450,7 +471,7 @@
   <dimension ref="A1:QF712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,25 +535,39 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/loggbok.xlsx
+++ b/loggbok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Vecka</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>bara en client åt gången funkar</t>
+  </si>
+  <si>
+    <t>Jobbat med servrar från tutorials men planerar att byta projekt</t>
+  </si>
+  <si>
+    <t>Byta projekt till ett textbaserat spel</t>
   </si>
 </sst>
 </file>
@@ -569,12 +575,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">

--- a/loggbok.xlsx
+++ b/loggbok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Vecka</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t>Byta projekt till ett textbaserat spel</t>
+  </si>
+  <si>
+    <t>Börjat med textbaserade spelet</t>
+  </si>
+  <si>
+    <t>fortsätta</t>
+  </si>
+  <si>
+    <t>Börjat fixa med rum och en note</t>
+  </si>
+  <si>
+    <t>fortsätta med första rummet</t>
+  </si>
+  <si>
+    <t>första rummet och noten klart</t>
+  </si>
+  <si>
+    <t>börja med rum två</t>
+  </si>
+  <si>
+    <t>PÅSK</t>
+  </si>
+  <si>
+    <t>Börjat med rum 2 och försökt göra koden kortare, tror dess värre att det inte går på ett bra sätt</t>
+  </si>
+  <si>
+    <t>Göra några fler rum</t>
+  </si>
+  <si>
+    <t>Blir lite för mycket kod men det  är så det är med ett textbaserat spel</t>
   </si>
 </sst>
 </file>
@@ -477,7 +507,7 @@
   <dimension ref="A1:QF712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,45 +617,65 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">

--- a/loggbok.xlsx
+++ b/loggbok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Vecka</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Blir lite för mycket kod men det  är så det är med ett textbaserat spel</t>
+  </si>
+  <si>
+    <t>Gjort klart rum 2 och börjat på rum 3 och 4</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QF712"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,11 +680,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>

--- a/loggbok.xlsx
+++ b/loggbok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Vecka</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Gjort klart rum 2 och börjat på rum 3 och 4</t>
+  </si>
+  <si>
+    <t>jobba klart med rum 4 och 5</t>
+  </si>
+  <si>
+    <t>Gjord klart till och med rum 5. nu kan du prata med banditer och få ett uppdrag att hitta en juvel.</t>
+  </si>
+  <si>
+    <t>Jobba med rum 6(där du kan få tag i juvelen)</t>
   </si>
 </sst>
 </file>
@@ -509,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QF712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="242" zoomScaleNormal="242" zoomScalePageLayoutView="242" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,15 +696,21 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
